--- a/database/seeders/samples.xlsx
+++ b/database/seeders/samples.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\education\storage\app\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\umarwaqas\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="120">
   <si>
     <t>id</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>https://via.placeholder.com/640x480.png/0000cc?text=molestiae</t>
+  </si>
+  <si>
+    <t>user_id</t>
   </si>
 </sst>
 </file>
@@ -1182,1347 +1185,1501 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3803</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1340</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4486</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3750</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>6</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2536</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>15</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2562</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>982</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4659</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>31</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>628</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>3</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2628</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>12</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1859</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>16</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>884</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>8</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>34</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>15</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4702</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>12</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>35</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>31</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>4342</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>10</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>15</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>3461</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>12</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>18</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1399</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>14</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>26</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1672</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>12</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>9</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>18</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>19</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>3090</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>19</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>55</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>19</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>3253</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>11</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>57</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>2027</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>3</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>59</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>14</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>26</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>31</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>3810</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>4</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>31</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>4423</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>8</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>63</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>34</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>35</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>15</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>3477</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>7</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>65</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>10</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>19</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>2489</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>16</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>67</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>14</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>10</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>31</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1976</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>18</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>69</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>14</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>10</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>596</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>12</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
         <v>71</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>14</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>10</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>15</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>591</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>9</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
         <v>73</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>34</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>26</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>31</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>3866</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
         <v>75</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>34</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>26</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>15</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>2272</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>3</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
         <v>77</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>9</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>10</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>15</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>3917</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>5</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
         <v>79</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>9</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>35</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>19</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>910</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>3</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
         <v>81</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>34</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>10</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>3861</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>7</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
         <v>83</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>34</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>35</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1931</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>12</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>85</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>34</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>26</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>15</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>4808</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>20</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
         <v>87</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>14</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>26</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>31</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>3342</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>4</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
         <v>89</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>9</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>26</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>19</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>4255</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>14</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>91</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>34</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>10</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>555</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>10</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>93</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>9</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>35</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>15</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>4240</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>18</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>95</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>14</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>26</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>15</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>4987</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>18</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>97</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>9</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>35</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>19</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>3336</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>10</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
         <v>99</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>9</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>35</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>31</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>946</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>3</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
         <v>101</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>14</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>10</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>19</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>4338</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>18</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
         <v>103</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>14</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>18</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>2066</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>3</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
         <v>105</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>9</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>26</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>2636</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>17</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
         <v>107</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>34</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>18</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>3888</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>7</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
         <v>109</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>14</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>26</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>19</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>3240</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>18</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
         <v>111</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>9</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>35</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>3810</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>5</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
         <v>113</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>14</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>26</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>19</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>723</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>17</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
         <v>115</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>34</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>35</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>31</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>652</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>18</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
         <v>117</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>9</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>35</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>19</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>1678</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>7</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>118</v>
       </c>
     </row>

--- a/database/seeders/samples.xlsx
+++ b/database/seeders/samples.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\umarwaqas\database\seeders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\education\storage\app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="119">
   <si>
     <t>id</t>
   </si>
@@ -376,9 +376,6 @@
   </si>
   <si>
     <t>https://via.placeholder.com/640x480.png/0000cc?text=molestiae</t>
-  </si>
-  <si>
-    <t>user_id</t>
   </si>
 </sst>
 </file>
@@ -1185,1501 +1182,1347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B51"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>3803</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>3803</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>1340</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>1340</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
         <v>19</v>
       </c>
+      <c r="F4">
+        <v>4486</v>
+      </c>
       <c r="G4">
-        <v>4486</v>
-      </c>
-      <c r="H4">
         <v>15</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
         <v>15</v>
       </c>
+      <c r="F5">
+        <v>3750</v>
+      </c>
       <c r="G5">
-        <v>3750</v>
-      </c>
-      <c r="H5">
         <v>6</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
         <v>15</v>
       </c>
+      <c r="F6">
+        <v>2536</v>
+      </c>
       <c r="G6">
-        <v>2536</v>
-      </c>
-      <c r="H6">
         <v>15</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
         <v>11</v>
       </c>
+      <c r="F7">
+        <v>2562</v>
+      </c>
       <c r="G7">
-        <v>2562</v>
-      </c>
-      <c r="H7">
         <v>12</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="s">
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
         <v>15</v>
       </c>
+      <c r="F8">
+        <v>982</v>
+      </c>
       <c r="G8">
-        <v>982</v>
-      </c>
-      <c r="H8">
         <v>11</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>4659</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9">
-        <v>4659</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="s">
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
         <v>31</v>
       </c>
+      <c r="F10">
+        <v>628</v>
+      </c>
       <c r="G10">
-        <v>628</v>
-      </c>
-      <c r="H10">
         <v>3</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
         <v>19</v>
       </c>
+      <c r="F11">
+        <v>2628</v>
+      </c>
       <c r="G11">
-        <v>2628</v>
-      </c>
-      <c r="H11">
         <v>12</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="s">
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
         <v>11</v>
       </c>
+      <c r="F12">
+        <v>1859</v>
+      </c>
       <c r="G12">
-        <v>1859</v>
-      </c>
-      <c r="H12">
         <v>16</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>1</v>
+      <c r="B13" t="s">
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
         <v>11</v>
       </c>
+      <c r="F13">
+        <v>884</v>
+      </c>
       <c r="G13">
-        <v>884</v>
-      </c>
-      <c r="H13">
         <v>8</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
         <v>15</v>
       </c>
+      <c r="F14">
+        <v>4702</v>
+      </c>
       <c r="G14">
-        <v>4702</v>
-      </c>
-      <c r="H14">
         <v>12</v>
       </c>
-      <c r="I14" t="s">
+      <c r="H14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1</v>
+      <c r="B15" t="s">
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" t="s">
         <v>31</v>
       </c>
+      <c r="F15">
+        <v>4342</v>
+      </c>
       <c r="G15">
-        <v>4342</v>
-      </c>
-      <c r="H15">
         <v>10</v>
       </c>
-      <c r="I15" t="s">
+      <c r="H15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1</v>
+      <c r="B16" t="s">
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
         <v>15</v>
       </c>
+      <c r="F16">
+        <v>3461</v>
+      </c>
       <c r="G16">
-        <v>3461</v>
-      </c>
-      <c r="H16">
         <v>12</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>1</v>
+      <c r="B17" t="s">
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
         <v>15</v>
       </c>
+      <c r="F17">
+        <v>1399</v>
+      </c>
       <c r="G17">
-        <v>1399</v>
-      </c>
-      <c r="H17">
         <v>14</v>
       </c>
-      <c r="I17" t="s">
+      <c r="H17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>1</v>
+      <c r="B18" t="s">
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
         <v>11</v>
       </c>
+      <c r="F18">
+        <v>1672</v>
+      </c>
       <c r="G18">
-        <v>1672</v>
-      </c>
-      <c r="H18">
         <v>12</v>
       </c>
-      <c r="I18" t="s">
+      <c r="H18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>1</v>
+      <c r="B19" t="s">
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
         <v>19</v>
       </c>
+      <c r="F19">
+        <v>3090</v>
+      </c>
       <c r="G19">
-        <v>3090</v>
-      </c>
-      <c r="H19">
         <v>19</v>
       </c>
-      <c r="I19" t="s">
+      <c r="H19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>1</v>
+      <c r="B20" t="s">
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
         <v>19</v>
       </c>
+      <c r="F20">
+        <v>3253</v>
+      </c>
       <c r="G20">
-        <v>3253</v>
-      </c>
-      <c r="H20">
         <v>11</v>
       </c>
-      <c r="I20" t="s">
+      <c r="H20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>1</v>
+      <c r="B21" t="s">
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
         <v>11</v>
       </c>
+      <c r="F21">
+        <v>2027</v>
+      </c>
       <c r="G21">
-        <v>2027</v>
-      </c>
-      <c r="H21">
         <v>3</v>
       </c>
-      <c r="I21" t="s">
+      <c r="H21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>1</v>
+      <c r="B22" t="s">
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
         <v>31</v>
       </c>
+      <c r="F22">
+        <v>3810</v>
+      </c>
       <c r="G22">
-        <v>3810</v>
-      </c>
-      <c r="H22">
         <v>4</v>
       </c>
-      <c r="I22" t="s">
+      <c r="H22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>1</v>
+      <c r="B23" t="s">
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
         <v>31</v>
       </c>
+      <c r="F23">
+        <v>4423</v>
+      </c>
       <c r="G23">
-        <v>4423</v>
-      </c>
-      <c r="H23">
         <v>8</v>
       </c>
-      <c r="I23" t="s">
+      <c r="H23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>1</v>
+      <c r="B24" t="s">
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" t="s">
         <v>15</v>
       </c>
+      <c r="F24">
+        <v>3477</v>
+      </c>
       <c r="G24">
-        <v>3477</v>
-      </c>
-      <c r="H24">
         <v>7</v>
       </c>
-      <c r="I24" t="s">
+      <c r="H24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>1</v>
+      <c r="B25" t="s">
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
         <v>19</v>
       </c>
+      <c r="F25">
+        <v>2489</v>
+      </c>
       <c r="G25">
-        <v>2489</v>
-      </c>
-      <c r="H25">
         <v>16</v>
       </c>
-      <c r="I25" t="s">
+      <c r="H25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>1</v>
+      <c r="B26" t="s">
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
         <v>31</v>
       </c>
+      <c r="F26">
+        <v>1976</v>
+      </c>
       <c r="G26">
-        <v>1976</v>
-      </c>
-      <c r="H26">
         <v>18</v>
       </c>
-      <c r="I26" t="s">
+      <c r="H26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>1</v>
+      <c r="B27" t="s">
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
         <v>11</v>
       </c>
+      <c r="F27">
+        <v>596</v>
+      </c>
       <c r="G27">
-        <v>596</v>
-      </c>
-      <c r="H27">
         <v>12</v>
       </c>
-      <c r="I27" t="s">
+      <c r="H27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>1</v>
+      <c r="B28" t="s">
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
         <v>15</v>
       </c>
+      <c r="F28">
+        <v>591</v>
+      </c>
       <c r="G28">
-        <v>591</v>
-      </c>
-      <c r="H28">
         <v>9</v>
       </c>
-      <c r="I28" t="s">
+      <c r="H28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>1</v>
+      <c r="B29" t="s">
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" t="s">
         <v>31</v>
       </c>
+      <c r="F29">
+        <v>3866</v>
+      </c>
       <c r="G29">
-        <v>3866</v>
-      </c>
-      <c r="H29">
         <v>2</v>
       </c>
-      <c r="I29" t="s">
+      <c r="H29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>1</v>
+      <c r="B30" t="s">
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" t="s">
         <v>15</v>
       </c>
+      <c r="F30">
+        <v>2272</v>
+      </c>
       <c r="G30">
-        <v>2272</v>
-      </c>
-      <c r="H30">
         <v>3</v>
       </c>
-      <c r="I30" t="s">
+      <c r="H30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>1</v>
+      <c r="B31" t="s">
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
         <v>15</v>
       </c>
+      <c r="F31">
+        <v>3917</v>
+      </c>
       <c r="G31">
-        <v>3917</v>
-      </c>
-      <c r="H31">
         <v>5</v>
       </c>
-      <c r="I31" t="s">
+      <c r="H31" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>1</v>
+      <c r="B32" t="s">
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" t="s">
         <v>19</v>
       </c>
+      <c r="F32">
+        <v>910</v>
+      </c>
       <c r="G32">
-        <v>910</v>
-      </c>
-      <c r="H32">
         <v>3</v>
       </c>
-      <c r="I32" t="s">
+      <c r="H32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>1</v>
+      <c r="B33" t="s">
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
         <v>11</v>
       </c>
+      <c r="F33">
+        <v>3861</v>
+      </c>
       <c r="G33">
-        <v>3861</v>
-      </c>
-      <c r="H33">
         <v>7</v>
       </c>
-      <c r="I33" t="s">
+      <c r="H33" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>1</v>
+      <c r="B34" t="s">
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" t="s">
         <v>11</v>
       </c>
+      <c r="F34">
+        <v>1931</v>
+      </c>
       <c r="G34">
-        <v>1931</v>
-      </c>
-      <c r="H34">
         <v>12</v>
       </c>
-      <c r="I34" t="s">
+      <c r="H34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>1</v>
+      <c r="B35" t="s">
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" t="s">
         <v>15</v>
       </c>
+      <c r="F35">
+        <v>4808</v>
+      </c>
       <c r="G35">
-        <v>4808</v>
-      </c>
-      <c r="H35">
         <v>20</v>
       </c>
-      <c r="I35" t="s">
+      <c r="H35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>1</v>
+      <c r="B36" t="s">
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" t="s">
         <v>31</v>
       </c>
+      <c r="F36">
+        <v>3342</v>
+      </c>
       <c r="G36">
-        <v>3342</v>
-      </c>
-      <c r="H36">
         <v>4</v>
       </c>
-      <c r="I36" t="s">
+      <c r="H36" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>1</v>
+      <c r="B37" t="s">
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" t="s">
         <v>19</v>
       </c>
+      <c r="F37">
+        <v>4255</v>
+      </c>
       <c r="G37">
-        <v>4255</v>
-      </c>
-      <c r="H37">
         <v>14</v>
       </c>
-      <c r="I37" t="s">
+      <c r="H37" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>1</v>
+      <c r="B38" t="s">
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38">
+        <v>555</v>
+      </c>
+      <c r="G38">
         <v>10</v>
       </c>
-      <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38">
-        <v>555</v>
-      </c>
-      <c r="H38">
-        <v>10</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="H38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>1</v>
+      <c r="B39" t="s">
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" t="s">
         <v>15</v>
       </c>
+      <c r="F39">
+        <v>4240</v>
+      </c>
       <c r="G39">
-        <v>4240</v>
-      </c>
-      <c r="H39">
         <v>18</v>
       </c>
-      <c r="I39" t="s">
+      <c r="H39" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>1</v>
+      <c r="B40" t="s">
+        <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" t="s">
         <v>15</v>
       </c>
+      <c r="F40">
+        <v>4987</v>
+      </c>
       <c r="G40">
-        <v>4987</v>
-      </c>
-      <c r="H40">
         <v>18</v>
       </c>
-      <c r="I40" t="s">
+      <c r="H40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>1</v>
+      <c r="B41" t="s">
+        <v>97</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" t="s">
         <v>19</v>
       </c>
+      <c r="F41">
+        <v>3336</v>
+      </c>
       <c r="G41">
-        <v>3336</v>
-      </c>
-      <c r="H41">
         <v>10</v>
       </c>
-      <c r="I41" t="s">
+      <c r="H41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>1</v>
+      <c r="B42" t="s">
+        <v>99</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" t="s">
         <v>31</v>
       </c>
+      <c r="F42">
+        <v>946</v>
+      </c>
       <c r="G42">
-        <v>946</v>
-      </c>
-      <c r="H42">
         <v>3</v>
       </c>
-      <c r="I42" t="s">
+      <c r="H42" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>1</v>
+      <c r="B43" t="s">
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" t="s">
         <v>19</v>
       </c>
+      <c r="F43">
+        <v>4338</v>
+      </c>
       <c r="G43">
-        <v>4338</v>
-      </c>
-      <c r="H43">
         <v>18</v>
       </c>
-      <c r="I43" t="s">
+      <c r="H43" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>1</v>
+      <c r="B44" t="s">
+        <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" t="s">
         <v>11</v>
       </c>
+      <c r="F44">
+        <v>2066</v>
+      </c>
       <c r="G44">
-        <v>2066</v>
-      </c>
-      <c r="H44">
         <v>3</v>
       </c>
-      <c r="I44" t="s">
+      <c r="H44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>1</v>
+      <c r="B45" t="s">
+        <v>105</v>
       </c>
       <c r="C45" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" t="s">
         <v>11</v>
       </c>
+      <c r="F45">
+        <v>2636</v>
+      </c>
       <c r="G45">
-        <v>2636</v>
-      </c>
-      <c r="H45">
         <v>17</v>
       </c>
-      <c r="I45" t="s">
+      <c r="H45" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>1</v>
+      <c r="B46" t="s">
+        <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" t="s">
         <v>11</v>
       </c>
+      <c r="F46">
+        <v>3888</v>
+      </c>
       <c r="G46">
-        <v>3888</v>
-      </c>
-      <c r="H46">
         <v>7</v>
       </c>
-      <c r="I46" t="s">
+      <c r="H46" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>1</v>
+      <c r="B47" t="s">
+        <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E47" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" t="s">
         <v>19</v>
       </c>
+      <c r="F47">
+        <v>3240</v>
+      </c>
       <c r="G47">
-        <v>3240</v>
-      </c>
-      <c r="H47">
         <v>18</v>
       </c>
-      <c r="I47" t="s">
+      <c r="H47" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>1</v>
+      <c r="B48" t="s">
+        <v>111</v>
       </c>
       <c r="C48" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" t="s">
         <v>11</v>
       </c>
+      <c r="F48">
+        <v>3810</v>
+      </c>
       <c r="G48">
-        <v>3810</v>
-      </c>
-      <c r="H48">
         <v>5</v>
       </c>
-      <c r="I48" t="s">
+      <c r="H48" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>1</v>
+      <c r="B49" t="s">
+        <v>113</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E49" t="s">
-        <v>26</v>
-      </c>
-      <c r="F49" t="s">
         <v>19</v>
       </c>
+      <c r="F49">
+        <v>723</v>
+      </c>
       <c r="G49">
-        <v>723</v>
-      </c>
-      <c r="H49">
         <v>17</v>
       </c>
-      <c r="I49" t="s">
+      <c r="H49" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>1</v>
+      <c r="B50" t="s">
+        <v>115</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
-      </c>
-      <c r="F50" t="s">
         <v>31</v>
       </c>
+      <c r="F50">
+        <v>652</v>
+      </c>
       <c r="G50">
-        <v>652</v>
-      </c>
-      <c r="H50">
         <v>18</v>
       </c>
-      <c r="I50" t="s">
+      <c r="H50" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>1</v>
+      <c r="B51" t="s">
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
-      </c>
-      <c r="F51" t="s">
         <v>19</v>
       </c>
+      <c r="F51">
+        <v>1678</v>
+      </c>
       <c r="G51">
-        <v>1678</v>
-      </c>
-      <c r="H51">
         <v>7</v>
       </c>
-      <c r="I51" t="s">
+      <c r="H51" t="s">
         <v>118</v>
       </c>
     </row>
